--- a/SchedulingData/dynamic16/pso/scheduling2_15.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling2_15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,230 +462,230 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>235.06</v>
+        <v>211.54</v>
       </c>
       <c r="D2" t="n">
-        <v>275.26</v>
+        <v>267.08</v>
       </c>
       <c r="E2" t="n">
-        <v>15.984</v>
+        <v>11.472</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>252.52</v>
+        <v>234.52</v>
       </c>
       <c r="D3" t="n">
-        <v>332.72</v>
+        <v>302.72</v>
       </c>
       <c r="E3" t="n">
-        <v>10.368</v>
+        <v>10.908</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>222.82</v>
+        <v>207.78</v>
       </c>
       <c r="D4" t="n">
-        <v>264.62</v>
+        <v>239.38</v>
       </c>
       <c r="E4" t="n">
-        <v>13.688</v>
+        <v>16.112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>248.9</v>
+        <v>302.72</v>
       </c>
       <c r="D5" t="n">
-        <v>304.44</v>
+        <v>354.92</v>
       </c>
       <c r="E5" t="n">
-        <v>12.696</v>
+        <v>7.308</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>304.44</v>
+        <v>209.62</v>
       </c>
       <c r="D6" t="n">
-        <v>397.88</v>
+        <v>248.14</v>
       </c>
       <c r="E6" t="n">
-        <v>8.952</v>
+        <v>14.356</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>332.72</v>
+        <v>354.92</v>
       </c>
       <c r="D7" t="n">
-        <v>396.94</v>
+        <v>408.74</v>
       </c>
       <c r="E7" t="n">
-        <v>6.056</v>
+        <v>4.536</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>397.88</v>
+        <v>245.06</v>
       </c>
       <c r="D8" t="n">
-        <v>453.9</v>
+        <v>293.8</v>
       </c>
       <c r="E8" t="n">
-        <v>4.48</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>231.5</v>
+        <v>239.38</v>
       </c>
       <c r="D9" t="n">
-        <v>291.7</v>
+        <v>298.78</v>
       </c>
       <c r="E9" t="n">
-        <v>14.34</v>
+        <v>11.312</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>264.62</v>
+        <v>267.08</v>
       </c>
       <c r="D10" t="n">
-        <v>330.74</v>
+        <v>309.84</v>
       </c>
       <c r="E10" t="n">
-        <v>9.215999999999999</v>
+        <v>8.336</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>453.9</v>
+        <v>248.14</v>
       </c>
       <c r="D11" t="n">
-        <v>511.6</v>
+        <v>300.54</v>
       </c>
       <c r="E11" t="n">
-        <v>1.84</v>
+        <v>10.756</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>511.6</v>
+        <v>221.76</v>
       </c>
       <c r="D12" t="n">
-        <v>599.52</v>
+        <v>267.62</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>12.428</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>275.26</v>
+        <v>293.8</v>
       </c>
       <c r="D13" t="n">
-        <v>321.12</v>
+        <v>357.1</v>
       </c>
       <c r="E13" t="n">
-        <v>12.528</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="14">
@@ -694,155 +694,155 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>330.74</v>
+        <v>300.54</v>
       </c>
       <c r="D14" t="n">
-        <v>434.74</v>
+        <v>373.54</v>
       </c>
       <c r="E14" t="n">
-        <v>4.416</v>
+        <v>8.036</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>291.7</v>
+        <v>357.1</v>
       </c>
       <c r="D15" t="n">
-        <v>340.02</v>
+        <v>401.4</v>
       </c>
       <c r="E15" t="n">
-        <v>11.128</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>321.12</v>
+        <v>309.84</v>
       </c>
       <c r="D16" t="n">
-        <v>363.1</v>
+        <v>352.44</v>
       </c>
       <c r="E16" t="n">
-        <v>9.460000000000001</v>
+        <v>5.696</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>363.1</v>
+        <v>401.4</v>
       </c>
       <c r="D17" t="n">
-        <v>415.98</v>
+        <v>463.94</v>
       </c>
       <c r="E17" t="n">
-        <v>4.812</v>
+        <v>1.096</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>205</v>
+        <v>463.94</v>
       </c>
       <c r="D18" t="n">
-        <v>261.86</v>
+        <v>553.25</v>
       </c>
       <c r="E18" t="n">
-        <v>12.984</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>396.94</v>
+        <v>267.62</v>
       </c>
       <c r="D19" t="n">
-        <v>462.48</v>
+        <v>338.72</v>
       </c>
       <c r="E19" t="n">
-        <v>3.092</v>
+        <v>7.948</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>415.98</v>
+        <v>373.54</v>
       </c>
       <c r="D20" t="n">
-        <v>475.88</v>
+        <v>431.96</v>
       </c>
       <c r="E20" t="n">
-        <v>1.432</v>
+        <v>4.824</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>475.88</v>
+        <v>431.96</v>
       </c>
       <c r="D21" t="n">
-        <v>540.02</v>
+        <v>504.36</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>1.224</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>462.48</v>
+        <v>504.36</v>
       </c>
       <c r="D22" t="n">
-        <v>552.7</v>
+        <v>578.91</v>
       </c>
       <c r="E22" t="n">
         <v>30</v>
@@ -865,17 +865,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>552.7</v>
+        <v>553.25</v>
       </c>
       <c r="D23" t="n">
-        <v>617.16</v>
+        <v>624.89</v>
       </c>
       <c r="E23" t="n">
-        <v>25.744</v>
+        <v>26.976</v>
       </c>
     </row>
     <row r="24">
@@ -884,112 +884,112 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>540.02</v>
+        <v>408.74</v>
       </c>
       <c r="D24" t="n">
-        <v>627.3200000000001</v>
+        <v>456.68</v>
       </c>
       <c r="E24" t="n">
-        <v>26.4</v>
+        <v>1.852</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>261.86</v>
+        <v>456.68</v>
       </c>
       <c r="D25" t="n">
-        <v>344.24</v>
+        <v>549.38</v>
       </c>
       <c r="E25" t="n">
-        <v>8.336</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>434.74</v>
+        <v>298.78</v>
       </c>
       <c r="D26" t="n">
-        <v>483.34</v>
+        <v>374.62</v>
       </c>
       <c r="E26" t="n">
-        <v>1.696</v>
+        <v>6.328</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>483.34</v>
+        <v>374.62</v>
       </c>
       <c r="D27" t="n">
-        <v>551.85</v>
+        <v>424.8</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>599.52</v>
+        <v>352.44</v>
       </c>
       <c r="D28" t="n">
-        <v>671.16</v>
+        <v>433.46</v>
       </c>
       <c r="E28" t="n">
-        <v>26.976</v>
+        <v>1.224</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>340.02</v>
+        <v>433.46</v>
       </c>
       <c r="D29" t="n">
-        <v>421.72</v>
+        <v>532.51</v>
       </c>
       <c r="E29" t="n">
-        <v>7.528</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
@@ -998,112 +998,112 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>421.72</v>
+        <v>338.72</v>
       </c>
       <c r="D30" t="n">
-        <v>496.6</v>
+        <v>385.32</v>
       </c>
       <c r="E30" t="n">
-        <v>3.64</v>
+        <v>3.928</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>551.85</v>
+        <v>424.8</v>
       </c>
       <c r="D31" t="n">
-        <v>615.09</v>
+        <v>506.52</v>
       </c>
       <c r="E31" t="n">
-        <v>27.316</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>617.16</v>
+        <v>506.52</v>
       </c>
       <c r="D32" t="n">
-        <v>664.86</v>
+        <v>558.72</v>
       </c>
       <c r="E32" t="n">
-        <v>22.104</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>664.86</v>
+        <v>385.32</v>
       </c>
       <c r="D33" t="n">
-        <v>732.26</v>
+        <v>435.4</v>
       </c>
       <c r="E33" t="n">
-        <v>18.504</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>344.24</v>
+        <v>435.4</v>
       </c>
       <c r="D34" t="n">
-        <v>392.56</v>
+        <v>511.12</v>
       </c>
       <c r="E34" t="n">
-        <v>5.124</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>671.16</v>
+        <v>532.51</v>
       </c>
       <c r="D35" t="n">
-        <v>741.46</v>
+        <v>598.55</v>
       </c>
       <c r="E35" t="n">
-        <v>23.076</v>
+        <v>27.036</v>
       </c>
     </row>
     <row r="36">
@@ -1112,264 +1112,245 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>615.09</v>
+        <v>578.91</v>
       </c>
       <c r="D36" t="n">
-        <v>689.17</v>
+        <v>619.71</v>
       </c>
       <c r="E36" t="n">
-        <v>23.508</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>392.56</v>
+        <v>511.12</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3</v>
+        <v>579.3</v>
       </c>
       <c r="E37" t="n">
-        <v>0.14</v>
+        <v>25.352</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>473.3</v>
+        <v>558.72</v>
       </c>
       <c r="D38" t="n">
-        <v>569.52</v>
+        <v>616.92</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>496.6</v>
+        <v>549.38</v>
       </c>
       <c r="D39" t="n">
-        <v>543.16</v>
+        <v>614.4</v>
       </c>
       <c r="E39" t="n">
-        <v>0.604</v>
+        <v>25.688</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>543.16</v>
+        <v>624.89</v>
       </c>
       <c r="D40" t="n">
-        <v>643.35</v>
+        <v>694.97</v>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>23.088</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>627.3200000000001</v>
+        <v>616.92</v>
       </c>
       <c r="D41" t="n">
-        <v>674.72</v>
+        <v>681.8200000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>24.28</v>
+        <v>18.42</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>643.35</v>
+        <v>598.55</v>
       </c>
       <c r="D42" t="n">
-        <v>700.71</v>
+        <v>654.53</v>
       </c>
       <c r="E42" t="n">
-        <v>25.944</v>
+        <v>24.528</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>700.71</v>
+        <v>614.4</v>
       </c>
       <c r="D43" t="n">
-        <v>760.21</v>
+        <v>681.28</v>
       </c>
       <c r="E43" t="n">
-        <v>23.084</v>
+        <v>22.62</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>569.52</v>
+        <v>579.3</v>
       </c>
       <c r="D44" t="n">
-        <v>616.5</v>
+        <v>616.7</v>
       </c>
       <c r="E44" t="n">
-        <v>27.492</v>
+        <v>23.232</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>616.5</v>
+        <v>681.8200000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>693.76</v>
+        <v>741.42</v>
       </c>
       <c r="E45" t="n">
-        <v>24.356</v>
+        <v>15.56</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>732.26</v>
+        <v>619.71</v>
       </c>
       <c r="D46" t="n">
-        <v>794.78</v>
+        <v>676.21</v>
       </c>
       <c r="E46" t="n">
-        <v>14.852</v>
+        <v>23.08</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>689.17</v>
+        <v>616.7</v>
       </c>
       <c r="D47" t="n">
-        <v>743.87</v>
+        <v>665.36</v>
       </c>
       <c r="E47" t="n">
-        <v>20.148</v>
+        <v>20.476</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>674.72</v>
+        <v>694.97</v>
       </c>
       <c r="D48" t="n">
-        <v>723.38</v>
+        <v>773.63</v>
       </c>
       <c r="E48" t="n">
-        <v>21.524</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>5</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>pond29</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>743.87</v>
-      </c>
-      <c r="D49" t="n">
-        <v>792.79</v>
-      </c>
-      <c r="E49" t="n">
-        <v>17.376</v>
+        <v>18.832</v>
       </c>
     </row>
   </sheetData>
